--- a/public/upload/e62020.xlsx
+++ b/public/upload/e62020.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ChuyenDe-Standard\public\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,18 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>id_customer</t>
-  </si>
-  <si>
-    <t>lastmonth</t>
-  </si>
-  <si>
-    <t>thismonth</t>
-  </si>
-  <si>
-    <t>name_customer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+  <si>
+    <t>Ma Chu Ho</t>
+  </si>
+  <si>
+    <t>Ho Ten Chu Ho</t>
+  </si>
+  <si>
+    <t>Chi So Cu</t>
+  </si>
+  <si>
+    <t>Chi So Moi</t>
   </si>
   <si>
     <t>Lê Văn Tân</t>
@@ -60,6 +55,273 @@
   </si>
   <si>
     <t>Võ Thị Mộng Trúc</t>
+  </si>
+  <si>
+    <t>Trương Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Lê Thành Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Trúc</t>
+  </si>
+  <si>
+    <t>Nguyễn thị Uyên Trang</t>
+  </si>
+  <si>
+    <t>Lê Đức Thắng</t>
+  </si>
+  <si>
+    <t>Võ Thị Uyên Trúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khánh</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng Thảo</t>
+  </si>
+  <si>
+    <t>Vũ Thành Đạt</t>
+  </si>
+  <si>
+    <t>Phan Văn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Thành</t>
+  </si>
+  <si>
+    <t>Triệu Việt Anh</t>
+  </si>
+  <si>
+    <t>Trần Thái Tuấn</t>
+  </si>
+  <si>
+    <t>Phan Đức Thái</t>
+  </si>
+  <si>
+    <t>Triệu Quang Phục</t>
+  </si>
+  <si>
+    <t>Trương Thái Quý</t>
+  </si>
+  <si>
+    <t>Trương Thị Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>Trương Linh Đan</t>
+  </si>
+  <si>
+    <t>Vũ Văn Việt</t>
+  </si>
+  <si>
+    <t>Lê Thị Diễm Quỳnh</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Tú</t>
+  </si>
+  <si>
+    <t>Thái Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Trần Thanh Phương</t>
+  </si>
+  <si>
+    <t>Võ Văn Hậu</t>
+  </si>
+  <si>
+    <t>Lê Thái Thịnh</t>
+  </si>
+  <si>
+    <t>Trần Thị Duyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Tú</t>
+  </si>
+  <si>
+    <t>Trần Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Lê Xuân Thi</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Lâm</t>
+  </si>
+  <si>
+    <t>Lê Thị Tuyết Nhung</t>
+  </si>
+  <si>
+    <t>Trần Thanh Nhã</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tài</t>
+  </si>
+  <si>
+    <t>Lê Thành Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ly</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dung</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Hoài Như</t>
+  </si>
+  <si>
+    <t>Lương Quỳnh Như</t>
+  </si>
+  <si>
+    <t>Lê Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Trần Hoài Thương</t>
+  </si>
+  <si>
+    <t>Lê Nguyên Vũ</t>
+  </si>
+  <si>
+    <t>Lê Tấn Kiên</t>
+  </si>
+  <si>
+    <t>Lê Hồng Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Phú</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Sương</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Minh</t>
+  </si>
+  <si>
+    <t>Lê Hoài Anh</t>
+  </si>
+  <si>
+    <t>Lê Thành Nguyên</t>
+  </si>
+  <si>
+    <t>Lê Anh Kha</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Danh</t>
+  </si>
+  <si>
+    <t>Lê Bá Nhiên</t>
+  </si>
+  <si>
+    <t>Trần Xung Phong</t>
+  </si>
+  <si>
+    <t>Lương Văn Bích</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Phước</t>
+  </si>
+  <si>
+    <t>Lê Thái Thành</t>
+  </si>
+  <si>
+    <t>Trần Hoài Nam</t>
+  </si>
+  <si>
+    <t>Ngô Thành Trung</t>
+  </si>
+  <si>
+    <t>Trần Thanh Hương</t>
+  </si>
+  <si>
+    <t>Lý Hưng Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Xuân</t>
+  </si>
+  <si>
+    <t>Hồ Bình Minh</t>
+  </si>
+  <si>
+    <t>Lê Anh Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Ngà</t>
+  </si>
+  <si>
+    <t>Vũ Trung Trực</t>
+  </si>
+  <si>
+    <t>Lê Hải Dương</t>
+  </si>
+  <si>
+    <t>Lê Xuân Diệu</t>
+  </si>
+  <si>
+    <t>Trần Tài Danh</t>
+  </si>
+  <si>
+    <t>Trần Hải</t>
+  </si>
+  <si>
+    <t>Lý Quang Phục</t>
+  </si>
+  <si>
+    <t>Lê Hữu Dũng</t>
+  </si>
+  <si>
+    <t>Lương Quang Toàn</t>
+  </si>
+  <si>
+    <t>Lê Quang Đăng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Toản</t>
+  </si>
+  <si>
+    <t>Trần Thạch Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Quý</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Lý Quốc Trường</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Đan</t>
+  </si>
+  <si>
+    <t>Lương Thiên Bình</t>
+  </si>
+  <si>
+    <t>Trần Chí Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Chính</t>
+  </si>
+  <si>
+    <t>Lê Thành Công</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hưng</t>
+  </si>
+  <si>
+    <t>Trần Nguyên Dung</t>
+  </si>
+  <si>
+    <t>Bùi Văn Cường</t>
   </si>
 </sst>
 </file>
@@ -76,23 +338,60 @@
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -101,9 +400,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,145 +691,1521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>546</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="2">
+        <v>156</v>
+      </c>
+      <c r="D2" s="5">
+        <v>205</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>312</v>
+      </c>
+      <c r="D3" s="5">
+        <v>406</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>431</v>
+      </c>
+      <c r="D4" s="5">
+        <v>533</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>280</v>
+      </c>
+      <c r="D5" s="5">
+        <v>342</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>432</v>
+      </c>
+      <c r="D6" s="5">
+        <v>559</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>324</v>
+      </c>
+      <c r="D7" s="5">
+        <v>430</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>612</v>
+      </c>
+      <c r="D8" s="5">
         <v>679</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>621</v>
-      </c>
-      <c r="D3" s="1">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>902</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>420</v>
-      </c>
-      <c r="D5" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>544</v>
+      </c>
+      <c r="D9" s="5">
+        <v>672</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>212</v>
+      </c>
+      <c r="D10" s="5">
+        <v>317</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>411</v>
+      </c>
+      <c r="D11" s="5">
+        <v>493</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>654</v>
+      </c>
+      <c r="D12" s="5">
+        <v>781</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>434</v>
+      </c>
+      <c r="D13" s="5">
+        <v>560</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>235</v>
+      </c>
+      <c r="D14" s="5">
+        <v>363</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>541</v>
+      </c>
+      <c r="D15" s="5">
+        <v>642</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>744</v>
+      </c>
+      <c r="D16" s="5">
+        <v>850</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>540</v>
+      </c>
+      <c r="D17" s="5">
+        <v>643</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
         <v>280</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D18" s="5">
+        <v>342</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>710</v>
+      </c>
+      <c r="D19" s="5">
+        <v>760</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>554</v>
+      </c>
+      <c r="D20" s="5">
+        <v>668</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>611</v>
+      </c>
+      <c r="D21" s="5">
+        <v>695</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>324</v>
+      </c>
+      <c r="D22" s="5">
+        <v>428</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>248</v>
+      </c>
+      <c r="D23" s="5">
+        <v>389</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2">
+        <v>440</v>
+      </c>
+      <c r="D24" s="5">
+        <v>551</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2">
+        <v>810</v>
+      </c>
+      <c r="D25" s="5">
+        <v>871</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>590</v>
+      </c>
+      <c r="D26" s="5">
+        <v>653</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>342</v>
+      </c>
+      <c r="D27" s="5">
+        <v>466</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2">
+        <v>411</v>
+      </c>
+      <c r="D28" s="5">
+        <v>524</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>234</v>
+      </c>
+      <c r="D29" s="5">
+        <v>361</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2">
+        <v>400</v>
+      </c>
+      <c r="D30" s="5">
+        <v>471</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>390</v>
+      </c>
+      <c r="D31" s="5">
+        <v>464</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>526</v>
+      </c>
+      <c r="D32" s="5">
+        <v>615</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>454</v>
+      </c>
+      <c r="D33" s="5">
+        <v>603</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>431</v>
+      </c>
+      <c r="D34" s="5">
+        <v>533</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>590</v>
+      </c>
+      <c r="D35" s="5">
+        <v>673</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>421</v>
+      </c>
+      <c r="D36" s="5">
+        <v>515</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>512</v>
+      </c>
+      <c r="D37" s="5">
+        <v>608</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>344</v>
+      </c>
+      <c r="D38" s="5">
+        <v>468</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
+        <v>571</v>
+      </c>
+      <c r="D39" s="5">
+        <v>722</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2">
+        <v>280</v>
+      </c>
+      <c r="D40" s="5">
+        <v>338</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2">
+        <v>555</v>
+      </c>
+      <c r="D41" s="5">
+        <v>694</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="2">
+        <v>310</v>
+      </c>
+      <c r="D42" s="5">
+        <v>398</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2">
+        <v>600</v>
+      </c>
+      <c r="D43" s="5">
+        <v>673</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2">
+        <v>344</v>
+      </c>
+      <c r="D44" s="5">
+        <v>466</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2">
+        <v>348</v>
+      </c>
+      <c r="D45" s="5">
         <v>480</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>430</v>
-      </c>
-      <c r="D7" s="1">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>340</v>
-      </c>
-      <c r="D8" s="1">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>300</v>
-      </c>
-      <c r="D9" s="1">
-        <v>400</v>
-      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2">
+        <v>490</v>
+      </c>
+      <c r="D46" s="5">
+        <v>562</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>398</v>
+      </c>
+      <c r="D47" s="5">
+        <v>486</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2">
+        <v>311</v>
+      </c>
+      <c r="D48" s="5">
+        <v>404</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2">
+        <v>213</v>
+      </c>
+      <c r="D49" s="5">
+        <v>319</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2">
+        <v>608</v>
+      </c>
+      <c r="D50" s="5">
+        <v>665</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2">
+        <v>580</v>
+      </c>
+      <c r="D51" s="5">
+        <v>633</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="2">
+        <v>311</v>
+      </c>
+      <c r="D52" s="5">
+        <v>404</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="2">
+        <v>490</v>
+      </c>
+      <c r="D53" s="5">
+        <v>570</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="2">
+        <v>605</v>
+      </c>
+      <c r="D54" s="5">
+        <v>683</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2">
+        <v>345</v>
+      </c>
+      <c r="D55" s="5">
+        <v>472</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2">
+        <v>696</v>
+      </c>
+      <c r="D56" s="5">
+        <v>754</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="2">
+        <v>332</v>
+      </c>
+      <c r="D57" s="5">
+        <v>450</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="2">
+        <v>812</v>
+      </c>
+      <c r="D58" s="5">
+        <v>877</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="2">
+        <v>514</v>
+      </c>
+      <c r="D59" s="5">
+        <v>612</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2">
+        <v>431</v>
+      </c>
+      <c r="D60" s="5">
+        <v>562</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2">
+        <v>389</v>
+      </c>
+      <c r="D61" s="5">
+        <v>460</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2">
+        <v>523</v>
+      </c>
+      <c r="D62" s="5">
+        <v>620</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="2">
+        <v>345</v>
+      </c>
+      <c r="D63" s="5">
+        <v>472</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="2">
+        <v>441</v>
+      </c>
+      <c r="D64" s="5">
+        <v>565</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="2">
+        <v>512</v>
+      </c>
+      <c r="D65" s="5">
+        <v>598</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="2">
+        <v>246</v>
+      </c>
+      <c r="D66" s="5">
+        <v>386</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="2">
+        <v>780</v>
+      </c>
+      <c r="D67" s="5">
+        <v>922</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="2">
+        <v>450</v>
+      </c>
+      <c r="D68" s="5">
+        <v>569</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2">
+        <v>390</v>
+      </c>
+      <c r="D69" s="5">
+        <v>562</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2">
+        <v>550</v>
+      </c>
+      <c r="D70" s="5">
+        <v>693</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2">
+        <v>190</v>
+      </c>
+      <c r="D71" s="5">
+        <v>270</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2">
+        <v>670</v>
+      </c>
+      <c r="D72" s="5">
+        <v>813</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2">
+        <v>500</v>
+      </c>
+      <c r="D73" s="5">
+        <v>675</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
+        <v>870</v>
+      </c>
+      <c r="D74" s="5">
+        <v>991</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2">
+        <v>590</v>
+      </c>
+      <c r="D75" s="5">
+        <v>653</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2">
+        <v>343</v>
+      </c>
+      <c r="D76" s="5">
+        <v>467</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2">
+        <v>800</v>
+      </c>
+      <c r="D77" s="5">
+        <v>860</v>
+      </c>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2">
+        <v>406</v>
+      </c>
+      <c r="D78" s="5">
+        <v>470</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2">
+        <v>480</v>
+      </c>
+      <c r="D79" s="5">
+        <v>631</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2">
+        <v>279</v>
+      </c>
+      <c r="D80" s="5">
+        <v>451</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2">
+        <v>421</v>
+      </c>
+      <c r="D81" s="5">
+        <v>537</v>
+      </c>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2">
+        <v>690</v>
+      </c>
+      <c r="D82" s="5">
+        <v>751</v>
+      </c>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2">
+        <v>820</v>
+      </c>
+      <c r="D83" s="5">
+        <v>900</v>
+      </c>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2">
+        <v>435</v>
+      </c>
+      <c r="D84" s="5">
+        <v>541</v>
+      </c>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2">
+        <v>343</v>
+      </c>
+      <c r="D85" s="5">
+        <v>468</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2">
+        <v>689</v>
+      </c>
+      <c r="D86" s="5">
+        <v>763</v>
+      </c>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2">
+        <v>650</v>
+      </c>
+      <c r="D87" s="5">
+        <v>860</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2">
+        <v>348</v>
+      </c>
+      <c r="D88" s="5">
+        <v>474</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2">
+        <v>541</v>
+      </c>
+      <c r="D89" s="5">
+        <v>666</v>
+      </c>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2">
+        <v>775</v>
+      </c>
+      <c r="D90" s="5">
+        <v>888</v>
+      </c>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2">
+        <v>510</v>
+      </c>
+      <c r="D91" s="5">
+        <v>583</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2">
+        <v>870</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1018</v>
+      </c>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2">
+        <v>500</v>
+      </c>
+      <c r="D93" s="5">
+        <v>591</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2">
+        <v>347</v>
+      </c>
+      <c r="D94" s="5">
+        <v>476</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2">
+        <v>800</v>
+      </c>
+      <c r="D95" s="5">
+        <v>862</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2">
+        <v>329</v>
+      </c>
+      <c r="D96" s="5">
+        <v>440</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2">
+        <v>237</v>
+      </c>
+      <c r="D97" s="5">
+        <v>375</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C98" s="2">
+        <v>334</v>
+      </c>
+      <c r="D98" s="5">
+        <v>450</v>
+      </c>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="2">
+        <v>565</v>
+      </c>
+      <c r="D99" s="5">
+        <v>690</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C100" s="2">
+        <v>589</v>
+      </c>
+      <c r="D100" s="5">
+        <v>772</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="E101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
